--- a/TP2/EJ1/Ej1_Bodes/NoInversor_G1.6_OK.xlsx
+++ b/TP2/EJ1/Ej1_Bodes/NoInversor_G1.6_OK.xlsx
@@ -3,17 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5D86E0-1192-4FDA-8398-DA8EDF9069B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C771438-38B5-4217-BA2E-AA7165684213}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$3:$C$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$M$3:$M$14</definedName>
-  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Gain</t>
   </si>
@@ -60,6 +56,9 @@
   </si>
   <si>
     <t>Zinp</t>
+  </si>
+  <si>
+    <t>Vin</t>
   </si>
 </sst>
 </file>
@@ -91,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -99,11 +98,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -111,7 +147,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -397,7 +439,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -453,14 +495,15 @@
         <v>6</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="1"/>
     </row>
@@ -469,7 +512,7 @@
         <v>1.6</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>60000</v>
       </c>
       <c r="D3" s="1">
@@ -494,15 +537,16 @@
         <v>-5</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="3">
-        <v>9.5000000000000001E-2</v>
-      </c>
       <c r="M3" s="1">
-        <f>(H3*1200)/(H3-L3)</f>
-        <v>5760.0000000000009</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+        <v>15.75</v>
+      </c>
+      <c r="N3" s="1">
+        <v>12.57</v>
+      </c>
+      <c r="O3" s="1">
+        <f>(M3*1200)/(M3-N3)</f>
+        <v>5943.396226415095</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
@@ -511,7 +555,7 @@
         <v>1.6</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>80000</v>
       </c>
       <c r="D4" s="1">
@@ -536,15 +580,16 @@
         <v>-9</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="3">
-        <v>9.4E-2</v>
-      </c>
       <c r="M4" s="1">
-        <f t="shared" ref="M4:M14" si="2">(H4*1200)/(H4-L4)</f>
-        <v>5538.461538461539</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+        <v>15.77</v>
+      </c>
+      <c r="N4" s="1">
+        <v>12.58</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O16" si="2">(M4*1200)/(M4-N4)</f>
+        <v>5932.2884012539198</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
@@ -553,7 +598,7 @@
         <v>1.6</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>100000</v>
       </c>
       <c r="D5" s="1">
@@ -578,15 +623,16 @@
         <v>-12</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="3">
-        <v>9.4E-2</v>
-      </c>
       <c r="M5" s="1">
+        <v>15.77</v>
+      </c>
+      <c r="N5" s="1">
+        <v>12.59</v>
+      </c>
+      <c r="O5" s="1">
         <f t="shared" si="2"/>
-        <v>5538.461538461539</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+        <v>5950.9433962264156</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
@@ -595,7 +641,7 @@
         <v>1.6</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>200000</v>
       </c>
       <c r="D6" s="1">
@@ -620,15 +666,16 @@
         <v>-22</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="3">
-        <v>9.4E-2</v>
-      </c>
       <c r="M6" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="N6" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="O6" s="1">
         <f t="shared" si="2"/>
-        <v>5538.461538461539</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+        <v>5924.9999999999982</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
@@ -637,7 +684,7 @@
         <v>1.6</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>300000</v>
       </c>
       <c r="D7" s="1">
@@ -662,15 +709,16 @@
         <v>-35</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="3">
-        <v>9.1999999999999998E-2</v>
-      </c>
       <c r="M7" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="N7" s="1">
+        <v>12.57</v>
+      </c>
+      <c r="O7" s="1">
         <f t="shared" si="2"/>
-        <v>5142.8571428571431</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+        <v>5869.9690402476772</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
@@ -679,7 +727,7 @@
         <v>1.6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>400000</v>
       </c>
       <c r="D8" s="1">
@@ -704,15 +752,16 @@
         <v>-46</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="3">
-        <v>9.0999999999999998E-2</v>
-      </c>
       <c r="M8" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="N8" s="1">
+        <v>12.56</v>
+      </c>
+      <c r="O8" s="1">
         <f t="shared" si="2"/>
-        <v>4965.5172413793107</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+        <v>5851.8518518518513</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
@@ -721,7 +770,7 @@
         <v>1.6</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>500000</v>
       </c>
       <c r="D9" s="1">
@@ -746,15 +795,16 @@
         <v>-56</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="3">
-        <v>8.7999999999999995E-2</v>
-      </c>
       <c r="M9" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="N9" s="1">
+        <v>12.52</v>
+      </c>
+      <c r="O9" s="1">
         <f t="shared" si="2"/>
-        <v>4500</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+        <v>5780.4878048780465</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
@@ -763,7 +813,7 @@
         <v>1.6</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>550000</v>
       </c>
       <c r="D10" s="1">
@@ -788,15 +838,16 @@
         <v>-60</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="3">
-        <v>8.7999999999999995E-2</v>
-      </c>
       <c r="M10" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="N10" s="1">
+        <v>12.52</v>
+      </c>
+      <c r="O10" s="1">
         <f t="shared" si="2"/>
-        <v>4500</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+        <v>5780.4878048780465</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
@@ -805,7 +856,7 @@
         <v>1.6</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>600000</v>
       </c>
       <c r="D11" s="1">
@@ -830,15 +881,16 @@
         <v>-63</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="3">
-        <v>8.5000000000000006E-2</v>
-      </c>
       <c r="M11" s="1">
+        <v>15.87</v>
+      </c>
+      <c r="N11" s="1">
+        <v>12.52</v>
+      </c>
+      <c r="O11" s="1">
         <f t="shared" si="2"/>
-        <v>4114.2857142857156</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+        <v>5684.7761194029854</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
@@ -847,7 +899,7 @@
         <v>1.6</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>650000</v>
       </c>
       <c r="D12" s="1">
@@ -872,15 +924,16 @@
         <v>-68</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="3">
-        <v>8.3000000000000004E-2</v>
-      </c>
       <c r="M12" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="N12" s="1">
+        <v>12.51</v>
+      </c>
+      <c r="O12" s="1">
         <f t="shared" si="2"/>
-        <v>3891.891891891893</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+        <v>5628.3185840707956</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
@@ -889,7 +942,7 @@
         <v>1.6</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>700000</v>
       </c>
       <c r="D13" s="1">
@@ -914,15 +967,16 @@
         <v>-70</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="3">
-        <v>8.3000000000000004E-2</v>
-      </c>
       <c r="M13" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="N13" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="O13" s="1">
         <f t="shared" si="2"/>
-        <v>3891.891891891893</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+        <v>5611.7647058823522</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
@@ -931,7 +985,7 @@
         <v>1.6</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>800000</v>
       </c>
       <c r="D14" s="1">
@@ -956,22 +1010,25 @@
         <v>-77</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="3">
-        <v>0.08</v>
-      </c>
       <c r="M14" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="N14" s="1">
+        <v>12.48</v>
+      </c>
+      <c r="O14" s="1">
         <f t="shared" si="2"/>
-        <v>3600.0000000000005</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+        <v>5578.9473684210525</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="4">
+        <v>1000000</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -981,16 +1038,25 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="M15" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="N15" s="1">
+        <v>12.42</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="2"/>
+        <v>5482.7586206896549</v>
+      </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="5">
+        <v>1500000</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1000,9 +1066,16 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="M16" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="N16" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="2"/>
+        <v>5156.7567567567548</v>
+      </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
@@ -1099,7 +1172,6 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -1118,7 +1190,6 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
@@ -1137,7 +1208,6 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
